--- a/exports/statistics/analysis_cortisol_features_weekend.xlsx
+++ b/exports/statistics/analysis_cortisol_features_weekend.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="43">
   <si>
     <t>parameter</t>
   </si>
@@ -35,6 +35,9 @@
     <t>between</t>
   </si>
   <si>
+    <t>padjust</t>
+  </si>
+  <si>
     <t>biomarker</t>
   </si>
   <si>
@@ -44,6 +47,9 @@
     <t>cortisol</t>
   </si>
   <si>
+    <t>fdr_bh</t>
+  </si>
+  <si>
     <t>W</t>
   </si>
   <si>
@@ -62,13 +68,16 @@
     <t>cini</t>
   </si>
   <si>
+    <t>cmax</t>
+  </si>
+  <si>
     <t>max_inc</t>
   </si>
   <si>
-    <t>slope03</t>
-  </si>
-  <si>
-    <t>slope04</t>
+    <t>slopeS0S3</t>
+  </si>
+  <si>
+    <t>slopeS0S4</t>
   </si>
   <si>
     <t>Weekday</t>
@@ -496,7 +505,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -512,7 +521,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -520,7 +529,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -528,7 +537,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -536,7 +545,15 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -546,240 +563,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3">
-        <v>0.977</v>
-      </c>
-      <c r="D3">
-        <v>0.026</v>
-      </c>
-      <c r="E3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4">
-        <v>0.916</v>
-      </c>
-      <c r="D4">
-        <v>0.035</v>
-      </c>
-      <c r="E4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5">
-        <v>0.976</v>
-      </c>
-      <c r="D5">
-        <v>0.019</v>
-      </c>
-      <c r="E5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6">
-        <v>0.857</v>
-      </c>
-      <c r="D6">
-        <v>0.002</v>
-      </c>
-      <c r="E6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7">
-        <v>0.953</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8">
-        <v>0.64</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9">
-        <v>0.944</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10">
-        <v>0.894</v>
-      </c>
-      <c r="D10">
-        <v>0.011</v>
-      </c>
-      <c r="E10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11">
-        <v>0.955</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12">
-        <v>0.865</v>
-      </c>
-      <c r="D12">
-        <v>0.003</v>
-      </c>
-      <c r="E12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13">
-        <v>0.9370000000000001</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14">
-        <v>0.929</v>
-      </c>
-      <c r="D14">
-        <v>0.074</v>
-      </c>
-      <c r="E14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -792,48 +576,46 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3">
-        <v>0.536</v>
+        <v>0.984</v>
       </c>
       <c r="D3">
-        <v>0.465</v>
+        <v>0.175</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C4">
-        <v>0.001</v>
+        <v>0.963</v>
       </c>
       <c r="D4">
-        <v>0.973</v>
+        <v>0.581</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -841,33 +623,31 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5">
-        <v>2.874</v>
+        <v>0.991</v>
       </c>
       <c r="D5">
-        <v>0.092</v>
+        <v>0.637</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C6">
-        <v>1.168</v>
+        <v>0.978</v>
       </c>
       <c r="D6">
-        <v>0.282</v>
+        <v>0.89</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -878,13 +658,283 @@
         <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>0.957</v>
+      </c>
+      <c r="D7">
+        <v>0.001</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="C8">
+        <v>0.893</v>
+      </c>
+      <c r="D8">
+        <v>0.026</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>0.977</v>
+      </c>
+      <c r="D9">
+        <v>0.037</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>0.982</v>
+      </c>
+      <c r="D10">
+        <v>0.951</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>0.974</v>
+      </c>
+      <c r="D11">
+        <v>0.021</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>0.944</v>
+      </c>
+      <c r="D12">
+        <v>0.262</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>0.969</v>
+      </c>
+      <c r="D13">
+        <v>0.007</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14">
+        <v>0.953</v>
+      </c>
+      <c r="D14">
+        <v>0.388</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>0.959</v>
+      </c>
+      <c r="D15">
+        <v>0.001</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16">
+        <v>0.925</v>
+      </c>
+      <c r="D16">
+        <v>0.109</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <v>1.227</v>
+      </c>
+      <c r="D3">
+        <v>0.27</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>2.089</v>
+      </c>
+      <c r="D4">
+        <v>0.151</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>1.155</v>
+      </c>
+      <c r="D5">
+        <v>0.284</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>1.54</v>
+      </c>
+      <c r="D6">
+        <v>0.217</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="C7">
-        <v>0.173</v>
+        <v>3.167</v>
       </c>
       <c r="D7">
-        <v>0.678</v>
+        <v>0.077</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -892,18 +942,35 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C8">
-        <v>0.214</v>
+        <v>3.335</v>
       </c>
       <c r="D8">
-        <v>0.645</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <v>1.296</v>
+      </c>
+      <c r="D9">
+        <v>0.257</v>
+      </c>
+      <c r="E9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -914,7 +981,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -922,187 +989,213 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>37.113</v>
+        <v>32.314</v>
       </c>
       <c r="F3">
-        <v>0.359</v>
+        <v>0.926</v>
       </c>
       <c r="G3">
-        <v>0.553</v>
+        <v>0.343</v>
       </c>
       <c r="H3">
-        <v>0.002</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>32.655</v>
+        <v>32.491</v>
       </c>
       <c r="F4">
-        <v>1.493</v>
+        <v>0.783</v>
       </c>
       <c r="G4">
-        <v>0.231</v>
+        <v>0.383</v>
       </c>
       <c r="H4">
-        <v>0.011</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>27.398</v>
+        <v>31.889</v>
       </c>
       <c r="F5">
-        <v>1.956</v>
+        <v>0.036</v>
       </c>
       <c r="G5">
-        <v>0.173</v>
+        <v>0.851</v>
       </c>
       <c r="H5">
-        <v>0.029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>38.722</v>
+        <v>33.21</v>
       </c>
       <c r="F6">
-        <v>1.931</v>
+        <v>0.068</v>
       </c>
       <c r="G6">
-        <v>0.173</v>
+        <v>0.796</v>
       </c>
       <c r="H6">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>34.46</v>
+        <v>34.928</v>
       </c>
       <c r="F7">
-        <v>1.922</v>
+        <v>0.103</v>
       </c>
       <c r="G7">
-        <v>0.175</v>
+        <v>0.75</v>
       </c>
       <c r="H7">
-        <v>0.013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>36.028</v>
+        <v>35.7</v>
       </c>
       <c r="F8">
-        <v>1.613</v>
+        <v>0.32</v>
       </c>
       <c r="G8">
-        <v>0.212</v>
+        <v>0.575</v>
       </c>
       <c r="H8">
-        <v>0.01</v>
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>30.899</v>
+      </c>
+      <c r="F9">
+        <v>0.066</v>
+      </c>
+      <c r="G9">
+        <v>0.799</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1112,7 +1205,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1120,250 +1213,285 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>724.776</v>
+        <v>685.122</v>
       </c>
       <c r="F3">
-        <v>762.9640000000001</v>
+        <v>738.119</v>
       </c>
       <c r="G3">
-        <v>-38.189</v>
+        <v>-52.997</v>
       </c>
       <c r="H3">
-        <v>66.798</v>
+        <v>65.06699999999999</v>
       </c>
       <c r="I3">
-        <v>-0.572</v>
+        <v>-0.8149999999999999</v>
       </c>
       <c r="J3">
-        <v>0.576</v>
+        <v>0.417</v>
       </c>
       <c r="K3">
-        <v>-0.122</v>
+        <v>-0.192</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>291.443</v>
+        <v>261.466</v>
       </c>
       <c r="F4">
-        <v>196.129</v>
+        <v>309.328</v>
       </c>
       <c r="G4">
-        <v>95.31399999999999</v>
+        <v>-47.861</v>
       </c>
       <c r="H4">
-        <v>70.556</v>
+        <v>64.193</v>
       </c>
       <c r="I4">
-        <v>1.351</v>
+        <v>-0.746</v>
       </c>
       <c r="J4">
-        <v>0.179</v>
+        <v>0.457</v>
       </c>
       <c r="K4">
-        <v>0.288</v>
+        <v>-0.175</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>7.033</v>
+        <v>6.893</v>
       </c>
       <c r="F5">
-        <v>9.199</v>
+        <v>7.03</v>
       </c>
       <c r="G5">
-        <v>-2.166</v>
+        <v>-0.137</v>
       </c>
       <c r="H5">
-        <v>0.995</v>
+        <v>0.845</v>
       </c>
       <c r="I5">
-        <v>-2.176</v>
+        <v>-0.162</v>
       </c>
       <c r="J5">
-        <v>0.031</v>
+        <v>0.874</v>
       </c>
       <c r="K5">
-        <v>-0.464</v>
+        <v>-0.038</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>8.778</v>
+        <v>15.178</v>
       </c>
       <c r="F6">
-        <v>6.607</v>
+        <v>15.503</v>
       </c>
       <c r="G6">
-        <v>2.171</v>
+        <v>-0.325</v>
       </c>
       <c r="H6">
-        <v>1.702</v>
+        <v>1.508</v>
       </c>
       <c r="I6">
-        <v>1.275</v>
+        <v>-0.216</v>
       </c>
       <c r="J6">
-        <v>0.204</v>
+        <v>0.835</v>
       </c>
       <c r="K6">
-        <v>0.272</v>
+        <v>-0.051</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>0.139</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="F7">
-        <v>0.08500000000000001</v>
+        <v>8.457000000000001</v>
       </c>
       <c r="G7">
-        <v>0.055</v>
+        <v>-0.407</v>
       </c>
       <c r="H7">
-        <v>0.038</v>
+        <v>1.592</v>
       </c>
       <c r="I7">
-        <v>1.432</v>
+        <v>-0.256</v>
       </c>
       <c r="J7">
-        <v>0.154</v>
+        <v>0.806</v>
       </c>
       <c r="K7">
-        <v>0.306</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>0.077</v>
+        <v>0.126</v>
       </c>
       <c r="F8">
-        <v>0.042</v>
+        <v>0.142</v>
       </c>
       <c r="G8">
-        <v>0.035</v>
+        <v>-0.016</v>
       </c>
       <c r="H8">
+        <v>0.037</v>
+      </c>
+      <c r="I8">
+        <v>-0.444</v>
+      </c>
+      <c r="J8">
+        <v>0.669</v>
+      </c>
+      <c r="K8">
+        <v>-0.104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F9">
+        <v>0.076</v>
+      </c>
+      <c r="G9">
+        <v>-0.006</v>
+      </c>
+      <c r="H9">
         <v>0.028</v>
       </c>
-      <c r="I8">
-        <v>1.249</v>
-      </c>
-      <c r="J8">
-        <v>0.213</v>
-      </c>
-      <c r="K8">
-        <v>0.267</v>
+      <c r="I9">
+        <v>-0.226</v>
+      </c>
+      <c r="J9">
+        <v>0.827</v>
+      </c>
+      <c r="K9">
+        <v>-0.053</v>
       </c>
     </row>
   </sheetData>
